--- a/results/I3_N5_M3_T30_C100_DepLowerLeft_s3_P6_res.xlsx
+++ b/results/I3_N5_M3_T30_C100_DepLowerLeft_s3_P6_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>555.032188783915</v>
+        <v>595.9143940269121</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.04500007629394531</v>
+        <v>0.003999948501586914</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>41.54218878391866</v>
+        <v>43.91439402691221</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>6.827410580612965</v>
+        <v>14.49777579177024</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6.827410580612965</v>
+        <v>14.49777579177024</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>308.7399999999963</v>
+        <v>478</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>204.75</v>
+        <v>74</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -587,7 +587,7 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -598,7 +598,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -609,7 +609,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -617,12 +617,67 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>2</v>
+      </c>
+      <c r="C7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>5</v>
+      </c>
+      <c r="B8" t="n">
+        <v>3</v>
+      </c>
+      <c r="C8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" t="n">
+        <v>4</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>5</v>
+      </c>
+      <c r="B10" t="n">
+        <v>5</v>
+      </c>
+      <c r="C10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -700,7 +755,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>8</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -711,7 +766,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -722,7 +777,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -744,7 +799,7 @@
         <v>5</v>
       </c>
       <c r="B9" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -791,7 +846,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -802,7 +857,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -824,7 +879,7 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -918,7 +973,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>20</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4">
@@ -926,7 +981,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="5">
@@ -934,7 +989,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>20.84866676379884</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6">
@@ -942,7 +997,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>9.666983483893066</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7">
@@ -958,7 +1013,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>30</v>
+        <v>27.01606971056828</v>
       </c>
     </row>
     <row r="9">
@@ -966,7 +1021,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>27.01606971056828</v>
+        <v>29.15133323620116</v>
       </c>
     </row>
     <row r="10">
@@ -974,7 +1029,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>22.46981780704569</v>
+        <v>25.44155308712504</v>
       </c>
     </row>
   </sheetData>
@@ -988,7 +1043,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1023,10 +1078,10 @@
         <v>3</v>
       </c>
       <c r="B2" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C2" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
         <v>1</v>
@@ -1037,10 +1092,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C3" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D3" t="n">
         <v>1</v>
@@ -1051,10 +1106,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C4" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -1062,15 +1117,85 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="B5" t="n">
         <v>7</v>
       </c>
       <c r="C5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>3</v>
+      </c>
+      <c r="B6" t="n">
+        <v>7</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="n">
+        <v>6</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>5</v>
+      </c>
+      <c r="B8" t="n">
+        <v>6</v>
+      </c>
+      <c r="C8" t="n">
+        <v>3</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" t="n">
+        <v>6</v>
+      </c>
+      <c r="C9" t="n">
+        <v>4</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>5</v>
+      </c>
+      <c r="B10" t="n">
+        <v>6</v>
+      </c>
+      <c r="C10" t="n">
+        <v>5</v>
+      </c>
+      <c r="D10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1173,7 +1298,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>65.71999999999964</v>
+        <v>60</v>
       </c>
     </row>
     <row r="8">
@@ -1184,7 +1309,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>59.43999999999964</v>
+        <v>71</v>
       </c>
     </row>
     <row r="9">
@@ -1195,7 +1320,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>69.37499999999963</v>
+        <v>65</v>
       </c>
     </row>
     <row r="10">
@@ -1206,7 +1331,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>64.17999999999964</v>
+        <v>61</v>
       </c>
     </row>
     <row r="11">
@@ -1217,7 +1342,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>63.18499999999963</v>
+        <v>64</v>
       </c>
     </row>
     <row r="12">
@@ -1228,7 +1353,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>78.50999999999979</v>
+        <v>53</v>
       </c>
     </row>
     <row r="13">
@@ -1239,7 +1364,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>89.96499999999978</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14">
@@ -1250,7 +1375,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>78.14499999999978</v>
+        <v>46</v>
       </c>
     </row>
     <row r="15">
@@ -1261,7 +1386,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>86.69499999999978</v>
+        <v>49</v>
       </c>
     </row>
     <row r="16">
@@ -1272,7 +1397,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>82.95499999999977</v>
+        <v>48</v>
       </c>
     </row>
     <row r="17">
@@ -1283,7 +1408,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>124.1099999999996</v>
+        <v>124</v>
       </c>
     </row>
     <row r="18">
@@ -1294,7 +1419,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>128.6899999999996</v>
+        <v>129</v>
       </c>
     </row>
     <row r="19">
@@ -1305,7 +1430,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>120.5399999999996</v>
+        <v>128</v>
       </c>
     </row>
     <row r="20">
@@ -1316,7 +1441,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>124.8699999999996</v>
+        <v>124</v>
       </c>
     </row>
     <row r="21">
@@ -1327,7 +1452,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>124.2199999999996</v>
+        <v>119</v>
       </c>
     </row>
     <row r="22">
@@ -1338,7 +1463,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>55.62000000000029</v>
+        <v>53</v>
       </c>
     </row>
     <row r="23">
@@ -1349,7 +1474,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>59.11000000000029</v>
+        <v>66</v>
       </c>
     </row>
     <row r="24">
@@ -1360,7 +1485,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>59.63000000000029</v>
+        <v>63</v>
       </c>
     </row>
     <row r="25">
@@ -1371,7 +1496,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>59.33000000000029</v>
+        <v>56</v>
       </c>
     </row>
     <row r="26">
@@ -1382,7 +1507,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>57.65</v>
+        <v>65</v>
       </c>
     </row>
     <row r="27">
@@ -1393,7 +1518,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>101.595</v>
+        <v>111</v>
       </c>
     </row>
     <row r="28">
@@ -1404,7 +1529,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>104.555</v>
+        <v>134</v>
       </c>
     </row>
     <row r="29">
@@ -1415,7 +1540,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>101.99</v>
+        <v>122</v>
       </c>
     </row>
     <row r="30">
@@ -1426,7 +1551,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>114.65</v>
+        <v>124</v>
       </c>
     </row>
     <row r="31">
@@ -1437,7 +1562,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>109.15</v>
+        <v>124</v>
       </c>
     </row>
     <row r="32">
@@ -1448,7 +1573,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>124.1099999999996</v>
+        <v>111</v>
       </c>
     </row>
     <row r="33">
@@ -1459,7 +1584,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>128.6899999999996</v>
+        <v>134</v>
       </c>
     </row>
     <row r="34">
@@ -1470,7 +1595,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>120.5399999999996</v>
+        <v>122</v>
       </c>
     </row>
     <row r="35">
@@ -1481,7 +1606,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>124.8699999999996</v>
+        <v>124</v>
       </c>
     </row>
     <row r="36">
@@ -1492,7 +1617,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>124.2199999999996</v>
+        <v>124</v>
       </c>
     </row>
     <row r="37">
@@ -1503,7 +1628,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>101.595</v>
+        <v>124</v>
       </c>
     </row>
     <row r="38">
@@ -1514,7 +1639,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>104.555</v>
+        <v>129</v>
       </c>
     </row>
     <row r="39">
@@ -1525,7 +1650,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>101.99</v>
+        <v>128</v>
       </c>
     </row>
     <row r="40">
@@ -1536,7 +1661,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>114.65</v>
+        <v>124</v>
       </c>
     </row>
     <row r="41">
@@ -1547,7 +1672,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>109.15</v>
+        <v>119</v>
       </c>
     </row>
     <row r="42">
@@ -1558,7 +1683,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>65.71999999999964</v>
+        <v>53</v>
       </c>
     </row>
     <row r="43">
@@ -1569,7 +1694,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>59.43999999999964</v>
+        <v>58</v>
       </c>
     </row>
     <row r="44">
@@ -1580,7 +1705,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>69.37499999999963</v>
+        <v>46</v>
       </c>
     </row>
     <row r="45">
@@ -1591,7 +1716,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>64.17999999999964</v>
+        <v>49</v>
       </c>
     </row>
     <row r="46">
@@ -1602,7 +1727,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>63.18499999999963</v>
+        <v>48</v>
       </c>
     </row>
   </sheetData>
@@ -1649,7 +1774,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>24.10999999999964</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3">
@@ -1660,7 +1785,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>28.68999999999963</v>
+        <v>34</v>
       </c>
     </row>
     <row r="4">
@@ -1671,7 +1796,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>20.53999999999964</v>
+        <v>22</v>
       </c>
     </row>
     <row r="5">
@@ -1682,7 +1807,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>24.86999999999964</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6">
@@ -1693,7 +1818,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>24.21999999999963</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7">
@@ -1704,7 +1829,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>1.595</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8">
@@ -1715,7 +1840,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>4.555</v>
+        <v>29</v>
       </c>
     </row>
     <row r="9">
@@ -1726,7 +1851,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>1.99</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10">
@@ -1737,7 +1862,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>14.65</v>
+        <v>24</v>
       </c>
     </row>
     <row r="11">
@@ -1748,7 +1873,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>9.15</v>
+        <v>19</v>
       </c>
     </row>
     <row r="12">
@@ -1850,7 +1975,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -1861,7 +1986,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
     </row>
     <row r="4">
@@ -1872,7 +1997,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -1883,7 +2008,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -1894,7 +2019,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="7">
@@ -1905,7 +2030,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>7.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1916,7 +2041,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>6.895</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1927,7 +2052,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>2.985</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -1938,7 +2063,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>3.18</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1949,7 +2074,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>3.585</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -2015,7 +2140,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>11.7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2026,7 +2151,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>17.095</v>
+        <v>0</v>
       </c>
     </row>
     <row r="19">
@@ -2037,7 +2162,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>21.56</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -2048,7 +2173,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>11.26</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -2059,7 +2184,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>16.935</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
